--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCC16B-4442-49CA-B36D-C6BFF196AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99498FAE-D611-4F91-A9A3-854E378ABC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,22 +328,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,6 +557,9 @@
                 <c:pt idx="3">
                   <c:v>1.2505515478551401</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.32976192981005</c:v>
                 </c:pt>
@@ -725,6 +725,9 @@
                 <c:pt idx="3">
                   <c:v>9.6387171652167994E-2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54927397286519397</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.38262590533122398</c:v>
                 </c:pt>
@@ -887,6 +890,9 @@
                 <c:pt idx="3">
                   <c:v>0.90053281746804703</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4773420989513399</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.253616715781391</c:v>
                 </c:pt>
@@ -1047,6 +1053,9 @@
                 <c:pt idx="3">
                   <c:v>0.26825189706869401</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56692428188398503</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.92103349743410901</c:v>
                 </c:pt>
@@ -1206,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.260709843132645</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2816495727747701</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.54354930762201503</c:v>
@@ -1368,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>3.1468659926758799E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.1766666072362603E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>1.0887121788982801E-2</c:v>
@@ -1532,6 +1547,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.42399298399686802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4121036510914602</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.58537651784718003</c:v>
@@ -1700,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.203573127166238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2914702441739854</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149519</c:v>
@@ -1848,7 +1869,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2258,7 +2279,7 @@
                   <c:v>3.2035731271662382E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.291470244173986E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2419,7 +2440,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2828,6 +2849,9 @@
                 <c:pt idx="3">
                   <c:v>98</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>159</c:v>
                 </c:pt>
@@ -2990,6 +3014,9 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3152,6 +3179,9 @@
                 <c:pt idx="3">
                   <c:v>72</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>147</c:v>
                 </c:pt>
@@ -3312,6 +3342,9 @@
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3470,6 +3503,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -3632,6 +3668,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -3796,6 +3835,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -3945,7 +3987,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4354,6 +4396,9 @@
                 <c:pt idx="3">
                   <c:v>57</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>59</c:v>
                 </c:pt>
@@ -4501,7 +4546,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4910,6 +4955,9 @@
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5057,7 +5105,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5466,6 +5514,9 @@
                 <c:pt idx="3">
                   <c:v>4.33</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3519999999999999</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>4.2569999999999997</c:v>
                 </c:pt>
@@ -5613,7 +5664,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -6028,7 +6079,7 @@
                   <c:v>176.3668430335097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>130.75313807531381</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6189,7 +6240,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10881,10 +10932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F8C0C-32ED-409A-A129-79038668F278}">
-  <dimension ref="B2:Z24"/>
+  <dimension ref="B2:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10905,34 +10956,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="O2" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="O2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="W2" s="10" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="W2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -11016,7 +11067,7 @@
         <f>1000*0.000921480532269925</f>
         <v>0.92148053226992499</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>1000*3.56509622179146E-06</f>
         <v>3.56509622179146E-3</v>
       </c>
@@ -11082,7 +11133,7 @@
         <f>1000*0.00175678869709373</f>
         <v>1.7567886970937299</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="1">
         <f>1000*0.000414676789660007</f>
         <v>0.41467678966000698</v>
       </c>
@@ -11090,7 +11141,7 @@
         <f>1000*0.000838255044072866</f>
         <v>0.838255044072866</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="11">
         <f>1000*3.34740389007493E-06</f>
         <v>3.3474038900749301E-3</v>
       </c>
@@ -11112,13 +11163,13 @@
       <c r="P6" s="2">
         <v>32</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="1">
         <v>134</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="1">
         <v>2</v>
       </c>
       <c r="T6" s="2">
@@ -11133,7 +11184,7 @@
       <c r="X6" s="2">
         <v>10</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="1">
         <v>3.0739999999999998</v>
       </c>
       <c r="Z6" s="2">
@@ -11156,7 +11207,7 @@
         <f>1000*0.00109893758781254</f>
         <v>1.09893758781254</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="1">
         <f>1000*0.000321194878779352</f>
         <v>0.32119487877935199</v>
       </c>
@@ -11164,7 +11215,7 @@
         <f>1000*0.000590288254898041</f>
         <v>0.59028825489804104</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="1">
         <f>1000*4.16044849771424E-06</f>
         <v>4.1604484977142402E-3</v>
       </c>
@@ -11186,13 +11237,13 @@
       <c r="P7" s="2">
         <v>32</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="1">
         <v>106</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="1">
         <v>2</v>
       </c>
       <c r="T7" s="2">
@@ -11207,7 +11258,7 @@
       <c r="X7" s="2">
         <v>10</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="1">
         <v>3.464</v>
       </c>
       <c r="Z7" s="2">
@@ -11231,7 +11282,7 @@
         <f>1000*0.000900532817468047</f>
         <v>0.90053281746804703</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="1">
         <f>1000*0.000268251897068694</f>
         <v>0.26825189706869401</v>
       </c>
@@ -11239,7 +11290,7 @@
         <f>1000*0.000260709843132645</f>
         <v>0.260709843132645</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="1">
         <f>1000*3.14686599267588E-06</f>
         <v>3.1468659926758799E-3</v>
       </c>
@@ -11261,13 +11312,13 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="1">
         <v>72</v>
       </c>
       <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="1">
         <v>2</v>
       </c>
       <c r="T8" s="2">
@@ -11282,7 +11333,7 @@
       <c r="X8" s="2">
         <v>10</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="1">
         <v>4.33</v>
       </c>
       <c r="Z8" s="2">
@@ -11294,31 +11345,74 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>1000*0.000549273972865194</f>
+        <v>0.54927397286519397</v>
+      </c>
+      <c r="F9" s="2">
+        <f>1000*0.00147734209895134</f>
+        <v>1.4773420989513399</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1000*0.000566924281883985</f>
+        <v>0.56692428188398503</v>
+      </c>
+      <c r="H9" s="2">
+        <f>1000*0.00128164957277477</f>
+        <v>1.2816495727747701</v>
+      </c>
+      <c r="I9" s="1">
+        <f>1000*4.17666660723626E-06</f>
+        <v>4.1766666072362603E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <f>1000*0.00141210365109146</f>
+        <v>1.4121036510914602</v>
+      </c>
+      <c r="K9" s="5">
+        <f>SUM(D9:J9)</f>
+        <v>5.2914702441739854</v>
+      </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
+        <v>5.291470244173986E-12</v>
+      </c>
+      <c r="O9" s="4">
+        <v>384</v>
+      </c>
+      <c r="P9" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>281</v>
+      </c>
+      <c r="R9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="2" t="e">
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>39</v>
+      </c>
+      <c r="X9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>130.75313807531381</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11328,9 +11422,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="5"/>
       <c r="M10" s="2">
@@ -11339,14 +11431,11 @@
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="12"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="12"/>
       <c r="T10" s="2"/>
       <c r="U10" s="5"/>
       <c r="W10" s="4"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="12"/>
       <c r="Z10" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -11368,7 +11457,7 @@
         <f>1000*0.000253616715781391</f>
         <v>0.253616715781391</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="1">
         <f>1000*0.000921033497434109</f>
         <v>0.92103349743410901</v>
       </c>
@@ -11376,7 +11465,7 @@
         <f>1000*0.000543549307622015</f>
         <v>0.54354930762201503</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="1">
         <f>1000*0.0000108871217889828</f>
         <v>1.0887121788982801E-2</v>
       </c>
@@ -11398,13 +11487,13 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="1">
         <v>147</v>
       </c>
       <c r="R11" s="2">
         <v>1</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="1">
         <v>2</v>
       </c>
       <c r="T11" s="2">
@@ -11419,7 +11508,7 @@
       <c r="X11" s="2">
         <v>10</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="1">
         <v>4.2569999999999997</v>
       </c>
       <c r="Z11" s="2">
@@ -11434,9 +11523,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="5"/>
       <c r="M12" s="2">
@@ -11445,14 +11532,11 @@
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="12"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="12"/>
       <c r="T12" s="2"/>
       <c r="U12" s="5"/>
       <c r="W12" s="4"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="12"/>
       <c r="Z12" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -11465,9 +11549,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="12"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="5"/>
       <c r="M13" s="2">
@@ -11476,14 +11558,11 @@
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="12"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="12"/>
       <c r="T13" s="2"/>
       <c r="U13" s="5"/>
       <c r="W13" s="4"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="12"/>
       <c r="Z13" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -11504,7 +11583,7 @@
         <f>1000*0.00121570681221783</f>
         <v>1.2157068122178301</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="1">
         <f>1000*0.000343570427503437</f>
         <v>0.34357042750343703</v>
       </c>
@@ -11512,7 +11591,7 @@
         <f>1000*0.000925468280911446</f>
         <v>0.92546828091144606</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="1">
         <f>1000*3.49782999364834E-06</f>
         <v>3.4978299936483399E-3</v>
       </c>
@@ -11521,7 +11600,7 @@
         <v>1.0144955012947299</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM(D14:J14)</f>
+        <f t="shared" ref="K14:K21" si="2">SUM(D14:J14)</f>
         <v>3.957774796390364</v>
       </c>
       <c r="M14" s="2">
@@ -11534,13 +11613,13 @@
       <c r="P14" s="2">
         <v>32</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="1">
         <v>160</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="1">
         <v>2</v>
       </c>
       <c r="T14" s="2">
@@ -11555,7 +11634,7 @@
       <c r="X14" s="2">
         <v>10</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="1">
         <v>3.6539999999999999</v>
       </c>
       <c r="Z14" s="2">
@@ -11578,7 +11657,7 @@
         <f>1000*0.00160096236504614</f>
         <v>1.60096236504614</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="1">
         <f>1000*0.000303795328363776</f>
         <v>0.30379532836377598</v>
       </c>
@@ -11586,7 +11665,7 @@
         <f>1000*0.000868793693371117</f>
         <v>0.868793693371117</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="1">
         <f>1000*3.56508598997607E-06</f>
         <v>3.5650859899760698E-3</v>
       </c>
@@ -11595,7 +11674,7 @@
         <v>0.85090019274503004</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(D15:J15)</f>
+        <f t="shared" si="2"/>
         <v>3.9989019692256953</v>
       </c>
       <c r="M15" s="2">
@@ -11608,13 +11687,13 @@
       <c r="P15" s="2">
         <v>32</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="1">
         <v>226</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="1">
         <v>2</v>
       </c>
       <c r="T15" s="2">
@@ -11629,7 +11708,7 @@
       <c r="X15" s="2">
         <v>9</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="1">
         <v>3.06</v>
       </c>
       <c r="Z15" s="2">
@@ -11652,7 +11731,7 @@
         <f>1000*0.00179032096639276</f>
         <v>1.7903209663927602</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="1">
         <f>1000*0.000363626226317137</f>
         <v>0.36362622631713698</v>
       </c>
@@ -11660,7 +11739,7 @@
         <f>1000*0.00102812109980732</f>
         <v>1.02812109980732</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="1">
         <f>1000*3.38650943376706E-06</f>
         <v>3.3865094337670598E-3</v>
       </c>
@@ -11669,7 +11748,7 @@
         <v>1.07843766454607</v>
       </c>
       <c r="K16" s="5">
-        <f>SUM(D16:J16)</f>
+        <f t="shared" si="2"/>
         <v>4.6963577210590302</v>
       </c>
       <c r="M16" s="2">
@@ -11682,13 +11761,13 @@
       <c r="P16" s="2">
         <v>32</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="1">
         <v>226</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="1">
         <v>2</v>
       </c>
       <c r="T16" s="2">
@@ -11703,7 +11782,7 @@
       <c r="X16" s="2">
         <v>8</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="1">
         <v>2.2770000000000001</v>
       </c>
       <c r="Z16" s="2">
@@ -11726,7 +11805,7 @@
         <f>1000*0.000793763087131083</f>
         <v>0.79376308713108301</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="1">
         <f>1000*0.00162343855481595</f>
         <v>1.62343855481595</v>
       </c>
@@ -11734,7 +11813,7 @@
         <f>1000*0.00104413053486496</f>
         <v>1.0441305348649599</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="1">
         <f>1000*6.84354336044635E-06</f>
         <v>6.8435433604463504E-3</v>
       </c>
@@ -11743,7 +11822,7 @@
         <v>0.78912044409662496</v>
       </c>
       <c r="K17" s="5">
-        <f>SUM(D17:J17)</f>
+        <f t="shared" si="2"/>
         <v>4.9984732863777026</v>
       </c>
       <c r="M17" s="2">
@@ -11756,13 +11835,13 @@
       <c r="P17" s="2">
         <v>32</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="1">
         <v>222</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="1">
         <v>4</v>
       </c>
       <c r="T17" s="2">
@@ -11777,7 +11856,7 @@
       <c r="X17" s="2">
         <v>7</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="1">
         <v>1.33</v>
       </c>
       <c r="Z17" s="2">
@@ -11800,7 +11879,7 @@
         <f>1000*0.000885166635271162</f>
         <v>0.88516663527116202</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="1">
         <f>1000*0.00154896057210863</f>
         <v>1.5489605721086301</v>
       </c>
@@ -11808,7 +11887,7 @@
         <f>1000*0.000758039066568017</f>
         <v>0.75803906656801701</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="1">
         <f>1000*5.97452208239702E-06</f>
         <v>5.9745220823970201E-3</v>
       </c>
@@ -11817,7 +11896,7 @@
         <v>0.69337280001491297</v>
       </c>
       <c r="K18" s="5">
-        <f>SUM(D18:J18)</f>
+        <f t="shared" si="2"/>
         <v>4.5428843882291439</v>
       </c>
       <c r="M18" s="2">
@@ -11830,13 +11909,13 @@
       <c r="P18" s="2">
         <v>32</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="1">
         <v>241</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="1">
         <v>4</v>
       </c>
       <c r="T18" s="2">
@@ -11851,7 +11930,7 @@
       <c r="X18" s="2">
         <v>6</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="1">
         <v>1.573</v>
       </c>
       <c r="Z18" s="2">
@@ -11874,7 +11953,7 @@
         <f>1000*0.00317416270263493</f>
         <v>3.1741627026349302</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="1">
         <f>1000*0.000278797728242353</f>
         <v>0.27879772824235299</v>
       </c>
@@ -11882,7 +11961,7 @@
         <f>1000*0.000888140755705535</f>
         <v>0.88814075570553497</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="1">
         <f>1000*4.53235816166853E-06</f>
         <v>4.5323581616685303E-3</v>
       </c>
@@ -11891,7 +11970,7 @@
         <v>0.85364980623125997</v>
       </c>
       <c r="K19" s="5">
-        <f>SUM(D19:J19)</f>
+        <f t="shared" si="2"/>
         <v>5.756232178555365</v>
       </c>
       <c r="M19" s="2">
@@ -11904,13 +11983,13 @@
       <c r="P19" s="2">
         <v>32</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="1">
         <v>258</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="1">
         <v>4</v>
       </c>
       <c r="T19" s="2">
@@ -11925,7 +12004,7 @@
       <c r="X19" s="2">
         <v>5</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="1">
         <v>0.374</v>
       </c>
       <c r="Z19" s="2">
@@ -11948,7 +12027,7 @@
         <f>1000*0.00380484666675329</f>
         <v>3.8048466667532899</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="1">
         <f>1000*0.000247060845140368</f>
         <v>0.24706084514036802</v>
       </c>
@@ -11956,7 +12035,7 @@
         <f>1000*0.00072020455263555</f>
         <v>0.72020455263554994</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="1">
         <f>1000*2.47698403654795E-06</f>
         <v>2.4769840365479502E-3</v>
       </c>
@@ -11965,7 +12044,7 @@
         <v>0.68621442187577497</v>
       </c>
       <c r="K20" s="5">
-        <f>SUM(D20:J20)</f>
+        <f t="shared" si="2"/>
         <v>6.032943100535701</v>
       </c>
       <c r="M20" s="2">
@@ -11978,13 +12057,13 @@
       <c r="P20" s="2">
         <v>32</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="1">
         <v>376</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="1">
         <v>4</v>
       </c>
       <c r="T20" s="2">
@@ -11999,7 +12078,7 @@
       <c r="X20" s="2">
         <v>4</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="1">
         <v>0.45400000000000001</v>
       </c>
       <c r="Z20" s="2">
@@ -12022,7 +12101,7 @@
         <f>1000*0.000642283877823502</f>
         <v>0.64228387782350205</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="1">
         <f>1000*0.00118907087016851</f>
         <v>1.18907087016851</v>
       </c>
@@ -12030,7 +12109,7 @@
         <f>1000*0.00138780823908746</f>
         <v>1.38780823908746</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="1">
         <f>1000*0.000018733164324658</f>
         <v>1.8733164324657998E-2</v>
       </c>
@@ -12039,7 +12118,7 @@
         <v>1.9081661012023701</v>
       </c>
       <c r="K21" s="5">
-        <f>SUM(D21:J21)</f>
+        <f t="shared" si="2"/>
         <v>5.4967950745776779</v>
       </c>
       <c r="M21" s="2">
@@ -12052,13 +12131,13 @@
       <c r="P21" s="2">
         <v>0</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="1">
         <v>458</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="1">
         <v>2</v>
       </c>
       <c r="T21" s="2">
@@ -12073,7 +12152,7 @@
       <c r="X21" s="2">
         <v>10</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="1">
         <v>4.2080000000000002</v>
       </c>
       <c r="Z21" s="2">
@@ -12090,9 +12169,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="12"/>
       <c r="J22" s="2"/>
       <c r="K22" s="5"/>
       <c r="M22" s="2">
@@ -12101,14 +12178,11 @@
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="12"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="12"/>
       <c r="T22" s="2"/>
       <c r="U22" s="5"/>
       <c r="W22" s="4"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="12"/>
       <c r="Z22" s="2" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -12129,7 +12203,7 @@
         <f>1000*0.00240964675322175</f>
         <v>2.4096467532217498</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="2">
@@ -12158,13 +12232,13 @@
       <c r="P23" s="2">
         <v>0</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="1">
         <v>699</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="1">
         <v>0</v>
       </c>
       <c r="T23" s="2">
@@ -12179,34 +12253,13 @@
       <c r="X23" s="2">
         <v>10</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="1">
         <v>1.369</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="1"/>
         <v>115.86142973004287</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99498FAE-D611-4F91-A9A3-854E378ABC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649D8122-D786-4298-9479-23690B25A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -563,6 +563,9 @@
                 <c:pt idx="6">
                   <c:v>1.32976192981005</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -731,6 +734,9 @@
                 <c:pt idx="6">
                   <c:v>0.38262590533122398</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67833159118890796</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0.45503594446927298</c:v>
                 </c:pt>
@@ -896,6 +902,9 @@
                 <c:pt idx="6">
                   <c:v>0.253616715781391</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0698106382042201</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2157068122178301</c:v>
                 </c:pt>
@@ -1059,6 +1068,9 @@
                 <c:pt idx="6">
                   <c:v>0.92103349743410901</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59275847161188699</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0.34357042750343703</c:v>
                 </c:pt>
@@ -1221,6 +1233,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.54354930762201503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3421794865280401</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.92546828091144606</c:v>
@@ -1386,6 +1401,9 @@
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>1.0887121788982801E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.8171112868876697E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.4978299936483399E-3</c:v>
@@ -1553,6 +1571,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.58537651784718003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.87364441808313</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0144955012947299</c:v>
@@ -1724,6 +1745,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5625417169030733</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.957774796390364</c:v>
@@ -2288,7 +2312,7 @@
                   <c:v>4.0268509956149517E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5625417169030737E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2855,6 +2879,9 @@
                 <c:pt idx="6">
                   <c:v>159</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>533</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>275</c:v>
                 </c:pt>
@@ -3020,6 +3047,9 @@
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3185,6 +3215,9 @@
                 <c:pt idx="6">
                   <c:v>147</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>452</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3348,6 +3381,9 @@
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3509,6 +3545,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -3674,6 +3713,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -3841,6 +3883,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -4402,6 +4447,9 @@
                 <c:pt idx="6">
                   <c:v>59</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>44</c:v>
                 </c:pt>
@@ -4961,6 +5009,9 @@
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5519,6 +5570,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.2569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.6539999999999999</c:v>
@@ -6088,7 +6142,7 @@
                   <c:v>174.12502176562771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>129.7521733489036</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -10935,7 +10989,7 @@
   <dimension ref="B2:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11520,26 +11574,74 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>1000*0.000678331591188908</f>
+        <v>0.67833159118890796</v>
+      </c>
+      <c r="F12" s="2">
+        <f>1000*0.00206981063820422</f>
+        <v>2.0698106382042201</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1000*0.000592758471611887</f>
+        <v>0.59275847161188699</v>
+      </c>
+      <c r="H12" s="2">
+        <f>1000*0.00134217948652804</f>
+        <v>1.3421794865280401</v>
+      </c>
+      <c r="I12" s="1">
+        <f>1000*5.81711128688767E-06</f>
+        <v>5.8171112868876697E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <f>1000*0.00187364441808313</f>
+        <v>1.87364441808313</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(D12:J12)</f>
+        <v>6.5625417169030733</v>
+      </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
+        <v>6.5625417169030737E-12</v>
+      </c>
+      <c r="O12" s="4">
+        <v>533</v>
+      </c>
+      <c r="P12" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>452</v>
+      </c>
+      <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="5"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="2"/>
-      <c r="Z12" s="2" t="e">
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>36</v>
+      </c>
+      <c r="X12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>129.7521733489036</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649D8122-D786-4298-9479-23690B25A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5102C79-DEFC-4379-B546-5A1D87B1FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Loop Pipelining</t>
+  </si>
+  <si>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +344,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,6 +566,9 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.32976192981005</c:v>
                 </c:pt>
@@ -588,9 +597,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
@@ -731,6 +737,9 @@
                 <c:pt idx="4">
                   <c:v>0.54927397286519397</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38693009992130101</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.38262590533122398</c:v>
                 </c:pt>
@@ -899,6 +908,9 @@
                 <c:pt idx="4">
                   <c:v>1.4773420989513399</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4364910311996899</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.253616715781391</c:v>
                 </c:pt>
@@ -1065,6 +1077,9 @@
                 <c:pt idx="4">
                   <c:v>0.56692428188398503</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55420439457520798</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0.92103349743410901</c:v>
                 </c:pt>
@@ -1230,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.2816495727747701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84493338363245096</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.54354930762201503</c:v>
@@ -1398,6 +1416,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>4.1766666072362603E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>4.3480208660184897E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>1.0887121788982801E-2</c:v>
@@ -1568,6 +1589,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.4121036510914602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98959542810916901</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.58537651784718003</c:v>
@@ -1742,6 +1766,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.2914702441739854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2165023583038366</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149519</c:v>
@@ -2306,7 +2333,7 @@
                   <c:v>5.291470244173986E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.2165023583038366E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149517E-12</c:v>
@@ -2876,6 +2903,9 @@
                 <c:pt idx="4">
                   <c:v>384</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>440</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>159</c:v>
                 </c:pt>
@@ -3044,6 +3074,9 @@
                 <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3212,6 +3245,9 @@
                 <c:pt idx="4">
                   <c:v>281</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>567</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>147</c:v>
                 </c:pt>
@@ -3378,6 +3414,9 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3543,6 +3582,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -3710,6 +3752,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -3880,6 +3925,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -4444,6 +4492,9 @@
                 <c:pt idx="4">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>59</c:v>
                 </c:pt>
@@ -5006,6 +5057,9 @@
                 <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5567,6 +5621,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.3519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1210000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.2569999999999997</c:v>
@@ -6136,7 +6193,7 @@
                   <c:v>130.75313807531381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>170.09695526450079</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>174.12502176562771</c:v>
@@ -10989,7 +11046,7 @@
   <dimension ref="B2:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11036,7 +11093,10 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
@@ -11473,26 +11533,74 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>1000*0.000386930099921301</f>
+        <v>0.38693009992130101</v>
+      </c>
+      <c r="F10" s="2">
+        <f>1000*0.00143649103119969</f>
+        <v>1.4364910311996899</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1000*0.000554204394575208</f>
+        <v>0.55420439457520798</v>
+      </c>
+      <c r="H10" s="2">
+        <f>1000*0.000844933383632451</f>
+        <v>0.84493338363245096</v>
+      </c>
+      <c r="I10" s="1">
+        <f>1000*4.34802086601849E-06</f>
+        <v>4.3480208660184897E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f>1000*0.000989595428109169</f>
+        <v>0.98959542810916901</v>
+      </c>
+      <c r="K10" s="5">
+        <f>SUM(D10:J10)</f>
+        <v>4.2165023583038366</v>
+      </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
+        <v>4.2165023583038366E-12</v>
+      </c>
+      <c r="O10" s="4">
+        <v>440</v>
+      </c>
+      <c r="P10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="2"/>
-      <c r="Z10" s="2" t="e">
+      <c r="Q10" s="1">
+        <v>567</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>39</v>
+      </c>
+      <c r="X10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.1210000000000004</v>
+      </c>
+      <c r="Z10" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>170.09695526450079</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -12266,9 +12374,7 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="H22" s="2"/>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5102C79-DEFC-4379-B546-5A1D87B1FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418A23B-D5FD-4E6B-9D8A-32E8C9EBBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -340,13 +340,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,6 +575,9 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -746,6 +749,9 @@
                 <c:pt idx="7">
                   <c:v>0.67833159118890796</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57970226043835305</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0.45503594446927298</c:v>
                 </c:pt>
@@ -917,6 +923,9 @@
                 <c:pt idx="7">
                   <c:v>2.0698106382042201</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5304341688752201</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2157068122178301</c:v>
                 </c:pt>
@@ -1086,6 +1095,9 @@
                 <c:pt idx="7">
                   <c:v>0.59275847161188699</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02545856498182</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0.34357042750343703</c:v>
                 </c:pt>
@@ -1254,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.3421794865280401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4032589970156599</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.92546828091144606</c:v>
@@ -1425,6 +1440,9 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
                   <c:v>5.8171112868876697E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.51955554328742E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.4978299936483399E-3</c:v>
@@ -1598,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.87364441808313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7241151072084899</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0144955012947299</c:v>
@@ -1775,6 +1796,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.5625417169030733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2684886540628302</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.957774796390364</c:v>
@@ -2342,7 +2366,7 @@
                   <c:v>6.5625417169030737E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.2684886540628295E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.9577747963903639E-12</c:v>
@@ -2912,6 +2936,9 @@
                 <c:pt idx="7">
                   <c:v>533</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1016</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>275</c:v>
                 </c:pt>
@@ -3083,6 +3110,9 @@
                 <c:pt idx="7">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3254,6 +3284,9 @@
                 <c:pt idx="7">
                   <c:v>452</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>717</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3423,6 +3456,9 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3591,6 +3627,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -3761,6 +3800,9 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -3934,6 +3976,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
@@ -4501,6 +4546,9 @@
                 <c:pt idx="7">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>44</c:v>
                 </c:pt>
@@ -5066,6 +5114,9 @@
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5630,6 +5681,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.6539999999999999</c:v>
@@ -6202,7 +6256,7 @@
                   <c:v>129.7521733489036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>126.31047113805735</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>157.5795776867318</c:v>
@@ -11046,7 +11100,7 @@
   <dimension ref="B2:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11067,34 +11121,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="O2" s="14" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="O2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="W2" s="14" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="W2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -11190,7 +11244,7 @@
         <v>1.00705958902836</v>
       </c>
       <c r="K5" s="2">
-        <f>SUM(D5:J5)</f>
+        <f t="shared" ref="K5:K12" si="0">SUM(D5:J5)</f>
         <v>3.9368294171708857</v>
       </c>
       <c r="M5" s="2">
@@ -11264,11 +11318,11 @@
         <v>1.3819906162098099</v>
       </c>
       <c r="K6" s="5">
-        <f>SUM(D6:J6)</f>
+        <f t="shared" si="0"/>
         <v>4.7655462381044433</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M23" si="0">(($K6/1000)*$X6*(10^-9))/10</f>
+        <f t="shared" ref="M6:M23" si="1">(($K6/1000)*$X6*(10^-9))/10</f>
         <v>4.7655462381044427E-12</v>
       </c>
       <c r="O6" s="4">
@@ -11302,7 +11356,7 @@
         <v>3.0739999999999998</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" ref="Z6:Z23" si="1">1000*1/($X6-$Y6)</f>
+        <f t="shared" ref="Z6:Z23" si="2">1000*1/($X6-$Y6)</f>
         <v>144.38348252959861</v>
       </c>
     </row>
@@ -11338,11 +11392,11 @@
         <v>0.93770562671124902</v>
       </c>
       <c r="K7" s="5">
-        <f>SUM(D7:J7)</f>
+        <f t="shared" si="0"/>
         <v>3.2448900142298922</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2448900142298923E-12</v>
       </c>
       <c r="O7" s="4">
@@ -11376,7 +11430,7 @@
         <v>3.464</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152.99877600979192</v>
       </c>
     </row>
@@ -11413,11 +11467,11 @@
         <v>0.42399298399686802</v>
       </c>
       <c r="K8" s="2">
-        <f>SUM(D8:J8)</f>
+        <f t="shared" si="0"/>
         <v>3.203573127166238</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2035731271662382E-12</v>
       </c>
       <c r="O8" s="4">
@@ -11451,7 +11505,7 @@
         <v>4.33</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176.3668430335097</v>
       </c>
     </row>
@@ -11487,11 +11541,11 @@
         <v>1.4121036510914602</v>
       </c>
       <c r="K9" s="5">
-        <f>SUM(D9:J9)</f>
+        <f t="shared" si="0"/>
         <v>5.2914702441739854</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.291470244173986E-12</v>
       </c>
       <c r="O9" s="4">
@@ -11525,7 +11579,7 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.75313807531381</v>
       </c>
     </row>
@@ -11561,11 +11615,11 @@
         <v>0.98959542810916901</v>
       </c>
       <c r="K10" s="5">
-        <f>SUM(D10:J10)</f>
+        <f t="shared" si="0"/>
         <v>4.2165023583038366</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2165023583038366E-12</v>
       </c>
       <c r="O10" s="4">
@@ -11599,7 +11653,7 @@
         <v>4.1210000000000004</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.09695526450079</v>
       </c>
     </row>
@@ -11636,11 +11690,11 @@
         <v>0.58537651784718003</v>
       </c>
       <c r="K11" s="5">
-        <f>SUM(D11:J11)</f>
+        <f t="shared" si="0"/>
         <v>4.0268509956149519</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0268509956149517E-12</v>
       </c>
       <c r="O11" s="4">
@@ -11674,7 +11728,7 @@
         <v>4.2569999999999997</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.12502176562771</v>
       </c>
     </row>
@@ -11710,11 +11764,11 @@
         <v>1.87364441808313</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(D12:J12)</f>
+        <f t="shared" si="0"/>
         <v>6.5625417169030733</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5625417169030737E-12</v>
       </c>
       <c r="O12" s="4">
@@ -11748,7 +11802,7 @@
         <v>2.2930000000000001</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129.7521733489036</v>
       </c>
     </row>
@@ -11756,26 +11810,74 @@
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="5"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f>1000*0.000579702260438353</f>
+        <v>0.57970226043835305</v>
+      </c>
+      <c r="F13" s="2">
+        <f>1000*0.00253043416887522</f>
+        <v>2.5304341688752201</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1000*0.00102545856498182</f>
+        <v>1.02545856498182</v>
+      </c>
+      <c r="H13" s="2">
+        <f>1000*0.00140325899701566</f>
+        <v>1.4032589970156599</v>
+      </c>
+      <c r="I13" s="1">
+        <f>1000*5.51955554328742E-06</f>
+        <v>5.51955554328742E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f>1000*0.00172411510720849</f>
+        <v>1.7241151072084899</v>
+      </c>
+      <c r="K13" s="5">
+        <f>SUM(D13:J13)</f>
+        <v>7.2684886540628302</v>
+      </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>7.2684886540628295E-12</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1016</v>
+      </c>
+      <c r="P13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="5"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="2"/>
-      <c r="Z13" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="Q13" s="1">
+        <v>717</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>36</v>
+      </c>
+      <c r="X13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="2"/>
+        <v>126.31047113805735</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11810,11 +11912,11 @@
         <v>1.0144955012947299</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K21" si="2">SUM(D14:J14)</f>
+        <f t="shared" ref="K14:K21" si="3">SUM(D14:J14)</f>
         <v>3.957774796390364</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9577747963903639E-12</v>
       </c>
       <c r="O14" s="4">
@@ -11848,7 +11950,7 @@
         <v>3.6539999999999999</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.5795776867318</v>
       </c>
     </row>
@@ -11884,11 +11986,11 @@
         <v>0.85090019274503004</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9989019692256953</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5990117723031265E-12</v>
       </c>
       <c r="O15" s="4">
@@ -11922,7 +12024,7 @@
         <v>3.06</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168.35016835016836</v>
       </c>
     </row>
@@ -11958,11 +12060,11 @@
         <v>1.07843766454607</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6963577210590302</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7570861768472243E-12</v>
       </c>
       <c r="O16" s="4">
@@ -11996,7 +12098,7 @@
         <v>2.2770000000000001</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.73353136466889</v>
       </c>
     </row>
@@ -12032,11 +12134,11 @@
         <v>0.78912044409662496</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9984732863777026</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4989313004643919E-12</v>
       </c>
       <c r="O17" s="4">
@@ -12070,7 +12172,7 @@
         <v>1.33</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176.3668430335097</v>
       </c>
     </row>
@@ -12106,11 +12208,11 @@
         <v>0.69337280001491297</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5428843882291439</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7257306329374865E-12</v>
       </c>
       <c r="O18" s="4">
@@ -12144,7 +12246,7 @@
         <v>1.573</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225.886604924328</v>
       </c>
     </row>
@@ -12180,11 +12282,11 @@
         <v>0.85364980623125997</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.756232178555365</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8781160892776826E-12</v>
       </c>
       <c r="O19" s="4">
@@ -12218,7 +12320,7 @@
         <v>0.374</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>216.16947686986595</v>
       </c>
     </row>
@@ -12254,11 +12356,11 @@
         <v>0.68621442187577497</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.032943100535701</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4131772402142805E-12</v>
       </c>
       <c r="O20" s="4">
@@ -12292,7 +12394,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>282.0078962210942</v>
       </c>
     </row>
@@ -12328,11 +12430,11 @@
         <v>1.9081661012023701</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.4967950745776779</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4967950745776776E-12</v>
       </c>
       <c r="O21" s="4">
@@ -12366,7 +12468,7 @@
         <v>4.2080000000000002</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.65193370165747</v>
       </c>
     </row>
@@ -12381,7 +12483,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="5"/>
       <c r="M22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O22" s="4"/>
@@ -12392,7 +12494,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="2"/>
       <c r="Z22" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12431,7 +12533,7 @@
         <v>16.281592970699425</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6281592970699424E-11</v>
       </c>
       <c r="O23" s="4">
@@ -12465,7 +12567,7 @@
         <v>1.369</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.86142973004287</v>
       </c>
     </row>
@@ -12485,7 +12587,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418A23B-D5FD-4E6B-9D8A-32E8C9EBBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7403881-33E4-4416-BCF7-3EAA00D9CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Operation Chaining clk=4ns</t>
-  </si>
-  <si>
-    <t>Arbitrary Precision</t>
   </si>
   <si>
     <t>AXI</t>
@@ -482,9 +479,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -537,9 +534,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -547,10 +541,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$5:$D$23</c:f>
+              <c:f>Data!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -602,7 +596,7 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -656,9 +650,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -711,9 +705,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -721,10 +712,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$5:$E$23</c:f>
+              <c:f>Data!$E$5:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
@@ -776,7 +767,7 @@
                 <c:pt idx="16">
                   <c:v>0.350732821971178</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0.36168267251923703</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,9 +821,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -885,9 +876,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -895,10 +883,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$5:$F$23</c:f>
+              <c:f>Data!$F$5:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
@@ -950,7 +938,7 @@
                 <c:pt idx="16">
                   <c:v>0.64228387782350205</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>2.4096467532217498</c:v>
                 </c:pt>
               </c:numCache>
@@ -1002,9 +990,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1057,9 +1045,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1067,10 +1052,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$5:$G$23</c:f>
+              <c:f>Data!$G$5:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
@@ -1122,7 +1107,7 @@
                 <c:pt idx="16">
                   <c:v>1.18907087016851</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1174,9 +1159,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1229,9 +1214,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1239,10 +1221,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$5:$H$23</c:f>
+              <c:f>Data!$H$5:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
@@ -1294,7 +1276,7 @@
                 <c:pt idx="16">
                   <c:v>1.38780823908746</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>7.9632550477981603</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,9 +1330,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1403,9 +1385,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1413,10 +1392,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$5:$I$23</c:f>
+              <c:f>Data!$I$5:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
@@ -1468,7 +1447,7 @@
                 <c:pt idx="16" formatCode="General">
                   <c:v>1.8733164324657998E-2</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>8.2827373262262007E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,9 +1503,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1579,9 +1558,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1589,10 +1565,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$J$5:$J$23</c:f>
+              <c:f>Data!$J$5:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
@@ -1644,7 +1620,7 @@
                 <c:pt idx="16">
                   <c:v>1.9081661012023701</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>5.5387257598340502</c:v>
                 </c:pt>
               </c:numCache>
@@ -1704,9 +1680,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1759,9 +1735,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1769,10 +1742,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$K$5:$K$23</c:f>
+              <c:f>Data!$K$5:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.9368294171708857</c:v>
                 </c:pt>
@@ -1824,7 +1797,7 @@
                 <c:pt idx="16">
                   <c:v>5.4967950745776779</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>16.281592970699425</c:v>
                 </c:pt>
               </c:numCache>
@@ -2272,9 +2245,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2327,9 +2300,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -2337,10 +2307,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$M$5:$M$23</c:f>
+              <c:f>Data!$M$5:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.9368294171708857E-12</c:v>
                 </c:pt>
@@ -2393,9 +2363,6 @@
                   <c:v>5.4967950745776776E-12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>1.6281592970699424E-11</c:v>
                 </c:pt>
               </c:numCache>
@@ -2843,9 +2810,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2898,9 +2865,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -2908,10 +2872,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$O$5:$O$23</c:f>
+              <c:f>Data!$O$5:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -2963,7 +2927,7 @@
                 <c:pt idx="16">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>739</c:v>
                 </c:pt>
               </c:numCache>
@@ -3017,9 +2981,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3072,9 +3036,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3082,10 +3043,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$P$5:$P$23</c:f>
+              <c:f>Data!$P$5:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -3137,7 +3098,7 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3191,9 +3152,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3246,9 +3207,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3256,10 +3214,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Q$5:$Q$23</c:f>
+              <c:f>Data!$Q$5:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3311,7 +3269,7 @@
                 <c:pt idx="16">
                   <c:v>458</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
@@ -3363,9 +3321,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3418,9 +3376,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3428,10 +3383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$R$5:$R$23</c:f>
+              <c:f>Data!$R$5:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,7 +3438,7 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3535,9 +3490,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3590,9 +3545,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3600,10 +3552,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$S$5:$S$23</c:f>
+              <c:f>Data!$S$5:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3655,7 +3607,7 @@
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3709,9 +3661,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3764,9 +3716,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3774,10 +3723,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$T$5:$T$23</c:f>
+              <c:f>Data!$T$5:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -3829,7 +3778,7 @@
                 <c:pt idx="16">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
@@ -3885,9 +3834,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3940,9 +3889,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -3950,10 +3896,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$U$5:$U$23</c:f>
+              <c:f>Data!$U$5:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4005,7 +3951,7 @@
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4453,9 +4399,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4508,9 +4454,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -4518,10 +4461,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$W$5:$W$23</c:f>
+              <c:f>Data!$W$5:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -4573,7 +4516,7 @@
                 <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -5021,9 +4964,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5076,9 +5019,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5086,10 +5026,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$X$5:$X$23</c:f>
+              <c:f>Data!$X$5:$X$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5141,7 +5081,7 @@
                 <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5589,9 +5529,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5644,9 +5584,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5654,10 +5591,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Y$5:$Y$23</c:f>
+              <c:f>Data!$Y$5:$Y$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>3.6539999999999999</c:v>
                 </c:pt>
@@ -5709,7 +5646,7 @@
                 <c:pt idx="16">
                   <c:v>4.2080000000000002</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="17">
                   <c:v>1.369</c:v>
                 </c:pt>
               </c:numCache>
@@ -6162,9 +6099,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$B$5:$B$23</c:f>
+              <c:f>Data!$B$5:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -6217,9 +6154,6 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Arbitrary Precision</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -6227,10 +6161,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$Z$5:$Z$23</c:f>
+              <c:f>Data!$Z$5:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>157.5795776867318</c:v>
                 </c:pt>
@@ -6283,9 +6217,6 @@
                   <c:v>172.65193370165747</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>115.86142973004287</c:v>
                 </c:pt>
               </c:numCache>
@@ -11097,10 +11028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F8C0C-32ED-409A-A129-79038668F278}">
-  <dimension ref="B2:Z23"/>
+  <dimension ref="B2:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11122,7 +11053,7 @@
   <sheetData>
     <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -11132,7 +11063,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="O2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -11141,7 +11072,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
       <c r="W2" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
@@ -11149,67 +11080,67 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="T3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="W3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11322,7 +11253,7 @@
         <v>4.7655462381044433</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M23" si="1">(($K6/1000)*$X6*(10^-9))/10</f>
+        <f t="shared" ref="M6:M22" si="1">(($K6/1000)*$X6*(10^-9))/10</f>
         <v>4.7655462381044427E-12</v>
       </c>
       <c r="O6" s="4">
@@ -11356,7 +11287,7 @@
         <v>3.0739999999999998</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" ref="Z6:Z23" si="2">1000*1/($X6-$Y6)</f>
+        <f t="shared" ref="Z6:Z22" si="2">1000*1/($X6-$Y6)</f>
         <v>144.38348252959861</v>
       </c>
     </row>
@@ -12400,7 +12331,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -12476,97 +12407,71 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="5"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f>1000*0.000361682672519237</f>
+        <v>0.36168267251923703</v>
+      </c>
+      <c r="F22" s="2">
+        <f>1000*0.00240964675322175</f>
+        <v>2.4096467532217498</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f>1000*0.00796325504779816</f>
+        <v>7.9632550477981603</v>
+      </c>
+      <c r="I22" s="2">
+        <f>1000*0.0000082827373262262</f>
+        <v>8.2827373262262007E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <f>1000*0.00553872575983405</f>
+        <v>5.5387257598340502</v>
+      </c>
+      <c r="K22" s="5">
+        <f>SUM(D22:J22)</f>
+        <v>16.281592970699425</v>
+      </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
+        <v>1.6281592970699424E-11</v>
+      </c>
+      <c r="O22" s="4">
+        <v>739</v>
+      </c>
+      <c r="P22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="5"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="2"/>
-      <c r="Z22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="Q22" s="1">
+        <v>699</v>
+      </c>
+      <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <f>1000*0.000361682672519237</f>
-        <v>0.36168267251923703</v>
-      </c>
-      <c r="F23" s="2">
-        <f>1000*0.00240964675322175</f>
-        <v>2.4096467532217498</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <f>1000*0.00796325504779816</f>
-        <v>7.9632550477981603</v>
-      </c>
-      <c r="I23" s="2">
-        <f>1000*0.0000082827373262262</f>
-        <v>8.2827373262262007E-3</v>
-      </c>
-      <c r="J23" s="2">
-        <f>1000*0.00553872575983405</f>
-        <v>5.5387257598340502</v>
-      </c>
-      <c r="K23" s="5">
-        <f>SUM(D23:J23)</f>
-        <v>16.281592970699425</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6281592970699424E-11</v>
-      </c>
-      <c r="O23" s="4">
-        <v>739</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>699</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
+      <c r="T22" s="2">
         <v>93</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U22" s="5">
         <v>1</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W22" s="4">
         <v>11</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X22" s="2">
         <v>10</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y22" s="1">
         <v>1.369</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z22" s="2">
         <f t="shared" si="2"/>
         <v>115.86142973004287</v>
       </c>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7403881-33E4-4416-BCF7-3EAA00D9CE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65723EC1-5E5B-40D9-B5FF-98BE7BE0B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -558,7 +558,7 @@
                   <c:v>1.2505515478551401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.2408513575792299</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -567,7 +567,7 @@
                   <c:v>1.32976192981005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.23103871010244</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -729,19 +729,19 @@
                   <c:v>9.6387171652167994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54927397286519397</c:v>
+                  <c:v>8.2524631579872193E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38693009992130101</c:v>
+                  <c:v>0.32527020084671698</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.38262590533122398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67833159118890796</c:v>
+                  <c:v>0.10697833204176301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57970226043835305</c:v>
+                  <c:v>0.32862459192983801</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.45503594446927298</c:v>
@@ -900,19 +900,19 @@
                   <c:v>0.90053281746804703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4773420989513399</c:v>
+                  <c:v>0.96068286802619696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4364910311996899</c:v>
+                  <c:v>2.3528356105089201</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.253616715781391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0698106382042201</c:v>
+                  <c:v>0.97222707699984301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5304341688752201</c:v>
+                  <c:v>2.5603906251490098</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.2157068122178301</c:v>
@@ -1069,19 +1069,19 @@
                   <c:v>0.26825189706869401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56692428188398503</c:v>
+                  <c:v>0.27235542074777203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55420439457520798</c:v>
+                  <c:v>0.26371504645794597</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.92103349743410901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59275847161188699</c:v>
+                  <c:v>0.24706596741452802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02545856498182</c:v>
+                  <c:v>0.29804851510562003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.34357042750343703</c:v>
@@ -1238,19 +1238,19 @@
                   <c:v>0.260709843132645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2816495727747701</c:v>
+                  <c:v>0.26666201301850401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84493338363245096</c:v>
+                  <c:v>0.57519110850989796</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.54354930762201503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3421794865280401</c:v>
+                  <c:v>0.25889289099723101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4032589970156599</c:v>
+                  <c:v>1.14636321086437</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.92546828091144606</c:v>
@@ -1409,19 +1409,19 @@
                   <c:v>3.1468659926758799E-3</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>4.1766666072362603E-3</c:v>
+                  <c:v>4.2814699554583101E-3</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>4.3480208660184897E-3</c:v>
+                  <c:v>7.01051294527133E-3</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
                   <c:v>1.0887121788982801E-2</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>5.8171112868876697E-3</c:v>
+                  <c:v>2.58562499766413E-3</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.51955554328742E-3</c:v>
+                  <c:v>3.00649980999879E-3</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>3.4978299936483399E-3</c:v>
@@ -1582,19 +1582,19 @@
                   <c:v>0.42399298399686802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4121036510914602</c:v>
+                  <c:v>0.42558953282423301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98959542810916901</c:v>
+                  <c:v>0.75069005833938696</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.58537651784718003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.87364441808313</c:v>
+                  <c:v>0.41881192009896001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7241151072084899</c:v>
+                  <c:v>1.32495700381696</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.0144955012947299</c:v>
@@ -1759,19 +1759,19 @@
                   <c:v>3.203573127166238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2914702441739854</c:v>
+                  <c:v>3.2529472937312667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2165023583038366</c:v>
+                  <c:v>4.2747125376081394</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5625417169030733</c:v>
+                  <c:v>3.2376005226524294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2684886540628302</c:v>
+                  <c:v>5.6613904466757976</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.957774796390364</c:v>
@@ -2324,19 +2324,19 @@
                   <c:v>3.2035731271662382E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.291470244173986E-12</c:v>
+                  <c:v>3.2529472937312669E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2165023583038366E-12</c:v>
+                  <c:v>4.2747125376081396E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.0268509956149517E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5625417169030737E-12</c:v>
+                  <c:v>3.2376005226524293E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2684886540628295E-12</c:v>
+                  <c:v>5.661390446675798E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.9577747963903639E-12</c:v>
@@ -2889,19 +2889,19 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>384</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>440</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>533</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1016</c:v>
+                  <c:v>1145</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>275</c:v>
@@ -3060,7 +3060,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3069,7 +3069,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3231,19 +3231,19 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>567</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>452</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>717</c:v>
+                  <c:v>864</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>160</c:v>
@@ -3400,7 +3400,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3409,7 +3409,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3572,7 +3572,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -3581,7 +3581,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -4478,19 +4478,19 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44</c:v>
@@ -5608,19 +5608,19 @@
                   <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3519999999999999</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1210000000000004</c:v>
+                  <c:v>3.4689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.2569999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2930000000000001</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0830000000000002</c:v>
+                  <c:v>3.097</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.6539999999999999</c:v>
@@ -6178,19 +6178,19 @@
                   <c:v>176.3668430335097</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.75313807531381</c:v>
+                  <c:v>176.3668430335097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170.09695526450079</c:v>
+                  <c:v>153.11590874291838</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>174.12502176562771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129.7521733489036</c:v>
+                  <c:v>176.3668430335097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.31047113805735</c:v>
+                  <c:v>144.86455164421264</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>157.5795776867318</c:v>
@@ -11031,7 +11031,7 @@
   <dimension ref="B2:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11445,51 +11445,52 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <f>1000*0.00124085135757923</f>
+        <v>1.2408513575792299</v>
       </c>
       <c r="E9" s="4">
-        <f>1000*0.000549273972865194</f>
-        <v>0.54927397286519397</v>
+        <f>1000*0.0000825246315798722</f>
+        <v>8.2524631579872193E-2</v>
       </c>
       <c r="F9" s="2">
-        <f>1000*0.00147734209895134</f>
-        <v>1.4773420989513399</v>
+        <f>1000*0.000960682868026197</f>
+        <v>0.96068286802619696</v>
       </c>
       <c r="G9" s="1">
-        <f>1000*0.000566924281883985</f>
-        <v>0.56692428188398503</v>
+        <f>1000*0.000272355420747772</f>
+        <v>0.27235542074777203</v>
       </c>
       <c r="H9" s="2">
-        <f>1000*0.00128164957277477</f>
-        <v>1.2816495727747701</v>
+        <f>1000*0.000266662013018504</f>
+        <v>0.26666201301850401</v>
       </c>
       <c r="I9" s="1">
-        <f>1000*4.17666660723626E-06</f>
-        <v>4.1766666072362603E-3</v>
+        <f>1000*4.28146995545831E-06</f>
+        <v>4.2814699554583101E-3</v>
       </c>
       <c r="J9" s="2">
-        <f>1000*0.00141210365109146</f>
-        <v>1.4121036510914602</v>
+        <f>1000*0.000425589532824233</f>
+        <v>0.42558953282423301</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>5.2914702441739854</v>
+        <f>SUM(D9:J9)</f>
+        <v>3.2529472937312667</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>5.291470244173986E-12</v>
+        <v>3.2529472937312669E-12</v>
       </c>
       <c r="O9" s="4">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="P9" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
         <v>2</v>
@@ -11501,17 +11502,17 @@
         <v>1</v>
       </c>
       <c r="W9" s="4">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X9" s="2">
         <v>10</v>
       </c>
       <c r="Y9" s="1">
-        <v>2.3519999999999999</v>
+        <v>4.33</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>130.75313807531381</v>
+        <v>176.3668430335097</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11522,51 +11523,51 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <f>1000*0.000386930099921301</f>
-        <v>0.38693009992130101</v>
+        <f>1000*0.000325270200846717</f>
+        <v>0.32527020084671698</v>
       </c>
       <c r="F10" s="2">
-        <f>1000*0.00143649103119969</f>
-        <v>1.4364910311996899</v>
+        <f>1000*0.00235283561050892</f>
+        <v>2.3528356105089201</v>
       </c>
       <c r="G10" s="1">
-        <f>1000*0.000554204394575208</f>
-        <v>0.55420439457520798</v>
+        <f>1000*0.000263715046457946</f>
+        <v>0.26371504645794597</v>
       </c>
       <c r="H10" s="2">
-        <f>1000*0.000844933383632451</f>
-        <v>0.84493338363245096</v>
+        <f>1000*0.000575191108509898</f>
+        <v>0.57519110850989796</v>
       </c>
       <c r="I10" s="1">
-        <f>1000*4.34802086601849E-06</f>
-        <v>4.3480208660184897E-3</v>
+        <f>1000*7.01051294527133E-06</f>
+        <v>7.01051294527133E-3</v>
       </c>
       <c r="J10" s="2">
-        <f>1000*0.000989595428109169</f>
-        <v>0.98959542810916901</v>
+        <f>1000*0.000750690058339387</f>
+        <v>0.75069005833938696</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>4.2165023583038366</v>
+        <f>SUM(D10:J10)</f>
+        <v>4.2747125376081394</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>4.2165023583038366E-12</v>
+        <v>4.2747125376081396E-12</v>
       </c>
       <c r="O10" s="4">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>567</v>
+        <v>843</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T10" s="2">
         <v>71</v>
@@ -11575,17 +11576,17 @@
         <v>1</v>
       </c>
       <c r="W10" s="4">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="X10" s="2">
         <v>10</v>
       </c>
       <c r="Y10" s="1">
-        <v>4.1210000000000004</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>170.09695526450079</v>
+        <v>153.11590874291838</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11668,51 +11669,52 @@
         <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <f>1000*0.00123103871010244</f>
+        <v>1.23103871010244</v>
       </c>
       <c r="E12" s="4">
-        <f>1000*0.000678331591188908</f>
-        <v>0.67833159118890796</v>
+        <f>1000*0.000106978332041763</f>
+        <v>0.10697833204176301</v>
       </c>
       <c r="F12" s="2">
-        <f>1000*0.00206981063820422</f>
-        <v>2.0698106382042201</v>
+        <f>1000*0.000972227076999843</f>
+        <v>0.97222707699984301</v>
       </c>
       <c r="G12" s="1">
-        <f>1000*0.000592758471611887</f>
-        <v>0.59275847161188699</v>
+        <f>1000*0.000247065967414528</f>
+        <v>0.24706596741452802</v>
       </c>
       <c r="H12" s="2">
-        <f>1000*0.00134217948652804</f>
-        <v>1.3421794865280401</v>
+        <f>1000*0.000258892890997231</f>
+        <v>0.25889289099723101</v>
       </c>
       <c r="I12" s="1">
-        <f>1000*5.81711128688767E-06</f>
-        <v>5.8171112868876697E-3</v>
+        <f>1000*2.58562499766413E-06</f>
+        <v>2.58562499766413E-3</v>
       </c>
       <c r="J12" s="2">
-        <f>1000*0.00187364441808313</f>
-        <v>1.87364441808313</v>
+        <f>1000*0.00041881192009896</f>
+        <v>0.41881192009896001</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5625417169030733</v>
+        <f>SUM(D12:J12)</f>
+        <v>3.2376005226524294</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>6.5625417169030737E-12</v>
+        <v>3.2376005226524293E-12</v>
       </c>
       <c r="O12" s="4">
-        <v>533</v>
+        <v>145</v>
       </c>
       <c r="P12" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>452</v>
+        <v>93</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
         <v>2</v>
@@ -11724,17 +11726,17 @@
         <v>1</v>
       </c>
       <c r="W12" s="4">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="X12" s="2">
         <v>10</v>
       </c>
       <c r="Y12" s="1">
-        <v>2.2930000000000001</v>
+        <v>4.33</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>129.7521733489036</v>
+        <v>176.3668430335097</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -11745,51 +11747,51 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>1000*0.000579702260438353</f>
-        <v>0.57970226043835305</v>
+        <f>1000*0.000328624591929838</f>
+        <v>0.32862459192983801</v>
       </c>
       <c r="F13" s="2">
-        <f>1000*0.00253043416887522</f>
-        <v>2.5304341688752201</v>
+        <f>1000*0.00256039062514901</f>
+        <v>2.5603906251490098</v>
       </c>
       <c r="G13" s="1">
-        <f>1000*0.00102545856498182</f>
-        <v>1.02545856498182</v>
+        <f>1000*0.00029804851510562</f>
+        <v>0.29804851510562003</v>
       </c>
       <c r="H13" s="2">
-        <f>1000*0.00140325899701566</f>
-        <v>1.4032589970156599</v>
+        <f>1000*0.00114636321086437</f>
+        <v>1.14636321086437</v>
       </c>
       <c r="I13" s="1">
-        <f>1000*5.51955554328742E-06</f>
-        <v>5.51955554328742E-3</v>
+        <f>1000*3.00649980999879E-06</f>
+        <v>3.00649980999879E-3</v>
       </c>
       <c r="J13" s="2">
-        <f>1000*0.00172411510720849</f>
-        <v>1.7241151072084899</v>
+        <f>1000*0.00132495700381696</f>
+        <v>1.32495700381696</v>
       </c>
       <c r="K13" s="5">
         <f>SUM(D13:J13)</f>
-        <v>7.2684886540628302</v>
+        <v>5.6613904466757976</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>7.2684886540628295E-12</v>
+        <v>5.661390446675798E-12</v>
       </c>
       <c r="O13" s="4">
-        <v>1016</v>
+        <v>1145</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>717</v>
+        <v>864</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T13" s="2">
         <v>71</v>
@@ -11798,17 +11800,17 @@
         <v>1</v>
       </c>
       <c r="W13" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="X13" s="2">
         <v>10</v>
       </c>
       <c r="Y13" s="1">
-        <v>2.0830000000000002</v>
+        <v>3.097</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>126.31047113805735</v>
+        <v>144.86455164421264</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A8749-3924-48F1-AD30-17FFCA044B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8FB36-1F7B-40F7-875D-1C55BA70BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="7" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,8 +307,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -351,8 +359,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{7A102217-A134-4CCB-9522-B088592477A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,16 +760,16 @@
                   <c:v>0.45503594446927298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.370885303709656</c:v>
+                  <c:v>0.37110940320417302</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.43246525456197599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74117712210863795</c:v>
+                  <c:v>0.417983799707144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65137079218402505</c:v>
+                  <c:v>0.367850007023662</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.55694882757961806</c:v>
@@ -922,16 +931,16 @@
                   <c:v>1.2157068122178301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.60096236504614</c:v>
+                  <c:v>1.6011279076337799</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.7903209663927602</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79376308713108301</c:v>
+                  <c:v>1.9918910693377301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88516663527116202</c:v>
+                  <c:v>2.0925332792103299</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.1741627026349302</c:v>
@@ -1091,22 +1100,22 @@
                   <c:v>0.34357042750343703</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30379532836377598</c:v>
+                  <c:v>0.30809169402345998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36362622631713698</c:v>
+                  <c:v>0.36470551276579499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.62343855481595</c:v>
+                  <c:v>0.30515596154145902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5489605721086301</c:v>
+                  <c:v>0.24498577113263298</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27879772824235299</c:v>
+                  <c:v>0.29166883905418201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24706084514036802</c:v>
+                  <c:v>0.25342355365864899</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.18907087016851</c:v>
@@ -1260,22 +1269,22 @@
                   <c:v>0.92546828091144606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.868793693371117</c:v>
+                  <c:v>0.87100372184067998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.02812109980732</c:v>
+                  <c:v>1.03614781983197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0441305348649599</c:v>
+                  <c:v>0.88153441902250096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75803906656801701</c:v>
+                  <c:v>0.78847596887499105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88814075570553497</c:v>
+                  <c:v>0.94342173542827401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72020455263554994</c:v>
+                  <c:v>0.79940224532037996</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.38780823908746</c:v>
@@ -1431,16 +1440,16 @@
                   <c:v>3.4978299936483399E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>3.5650859899760698E-3</c:v>
+                  <c:v>3.50466098097968E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>3.3865094337670598E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>6.8435433604463504E-3</c:v>
+                  <c:v>2.57518195212469E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>5.9745220823970201E-3</c:v>
+                  <c:v>2.73619048130058E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
                   <c:v>4.5323581616685303E-3</c:v>
@@ -1604,22 +1613,22 @@
                   <c:v>1.0144955012947299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85090019274503004</c:v>
+                  <c:v>0.84555009379982904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.07843766454607</c:v>
+                  <c:v>1.08535541221499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78912044409662496</c:v>
+                  <c:v>0.75794750591740001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69337280001491297</c:v>
+                  <c:v>0.66666305065154996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85364980623125997</c:v>
+                  <c:v>0.90615299995988596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68621442187577497</c:v>
+                  <c:v>0.75632607331499502</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.9081661012023701</c:v>
@@ -1781,22 +1790,22 @@
                   <c:v>3.957774796390364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9989019692256953</c:v>
+                  <c:v>4.0003874814829015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6963577210590302</c:v>
+                  <c:v>4.7123814752012585</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9984732863777026</c:v>
+                  <c:v>4.3570879374783589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5428843882291439</c:v>
+                  <c:v>4.1632442673744663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.756232178555365</c:v>
+                  <c:v>5.8768874628185586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.032943100535701</c:v>
+                  <c:v>6.1886151531780325</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.4967950745776779</c:v>
@@ -3396,22 +3405,22 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8824,22 +8833,22 @@
                   <c:v>3.9577747963903639E-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5990117723031265E-12</c:v>
+                  <c:v>3.6003487333346118E-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7570861768472243E-12</c:v>
+                  <c:v>3.7699051801610065E-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4989313004643919E-12</c:v>
+                  <c:v>3.049961556234851E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7257306329374865E-12</c:v>
+                  <c:v>2.4979465604246801E-12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8781160892776826E-12</c:v>
+                  <c:v>2.9384437314092796E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4131772402142805E-12</c:v>
+                  <c:v>2.4754460612712132E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.4967950745776776E-12</c:v>
@@ -18594,22 +18603,22 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
@@ -20873,16 +20882,16 @@
                   <c:v>0.45503594446927298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.370885303709656</c:v>
+                  <c:v>0.37110940320417302</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.43246525456197599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74117712210863795</c:v>
+                  <c:v>0.417983799707144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65137079218402505</c:v>
+                  <c:v>0.367850007023662</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.55694882757961806</c:v>
@@ -20978,16 +20987,16 @@
                   <c:v>1.2157068122178301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.60096236504614</c:v>
+                  <c:v>1.6011279076337799</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7903209663927602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79376308713108301</c:v>
+                  <c:v>1.9918910693377301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88516663527116202</c:v>
+                  <c:v>2.0925332792103299</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.1741627026349302</c:v>
@@ -21081,22 +21090,22 @@
                   <c:v>0.34357042750343703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30379532836377598</c:v>
+                  <c:v>0.30809169402345998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36362622631713698</c:v>
+                  <c:v>0.36470551276579499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.62343855481595</c:v>
+                  <c:v>0.30515596154145902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5489605721086301</c:v>
+                  <c:v>0.24498577113263298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27879772824235299</c:v>
+                  <c:v>0.29166883905418201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24706084514036802</c:v>
+                  <c:v>0.25342355365864899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21184,22 +21193,22 @@
                   <c:v>0.92546828091144606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.868793693371117</c:v>
+                  <c:v>0.87100372184067998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02812109980732</c:v>
+                  <c:v>1.03614781983197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0441305348649599</c:v>
+                  <c:v>0.88153441902250096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75803906656801701</c:v>
+                  <c:v>0.78847596887499105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88814075570553497</c:v>
+                  <c:v>0.94342173542827401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72020455263554994</c:v>
+                  <c:v>0.79940224532037996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21289,16 +21298,16 @@
                   <c:v>3.4978299936483399E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5650859899760698E-3</c:v>
+                  <c:v>3.50466098097968E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.3865094337670598E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8435433604463504E-3</c:v>
+                  <c:v>2.57518195212469E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9745220823970201E-3</c:v>
+                  <c:v>2.73619048130058E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.5323581616685303E-3</c:v>
@@ -21396,22 +21405,22 @@
                   <c:v>1.0144955012947299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85090019274503004</c:v>
+                  <c:v>0.84555009379982904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.07843766454607</c:v>
+                  <c:v>1.08535541221499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78912044409662496</c:v>
+                  <c:v>0.75794750591740001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69337280001491297</c:v>
+                  <c:v>0.66666305065154996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85364980623125997</c:v>
+                  <c:v>0.90615299995988596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68621442187577497</c:v>
+                  <c:v>0.75632607331499502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21507,22 +21516,22 @@
                   <c:v>3.957774796390364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9989019692256953</c:v>
+                  <c:v>4.0003874814829015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6963577210590302</c:v>
+                  <c:v>4.7123814752012585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9984732863777026</c:v>
+                  <c:v>4.3570879374783589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5428843882291439</c:v>
+                  <c:v>4.1632442673744663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.756232178555365</c:v>
+                  <c:v>5.8768874628185586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.032943100535701</c:v>
+                  <c:v>6.1886151531780325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21994,22 +22003,22 @@
                   <c:v>3.9577747963903639E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5990117723031265E-12</c:v>
+                  <c:v>3.6003487333346118E-12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7570861768472243E-12</c:v>
+                  <c:v>3.7699051801610065E-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4989313004643919E-12</c:v>
+                  <c:v>3.049961556234851E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7257306329374865E-12</c:v>
+                  <c:v>2.4979465604246801E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8781160892776826E-12</c:v>
+                  <c:v>2.9384437314092796E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4131772402142805E-12</c:v>
+                  <c:v>2.4754460612712132E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41170,8 +41179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F8C0C-32ED-409A-A129-79038668F278}">
   <dimension ref="B2:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41985,7 +41994,7 @@
         <v>1.0144955012947299</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K21" si="3">SUM(D14:J14)</f>
+        <f>SUM(D14:J14)</f>
         <v>3.957774796390364</v>
       </c>
       <c r="M14" s="2">
@@ -42035,36 +42044,36 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f>1000*0.000370885303709656</f>
-        <v>0.370885303709656</v>
+        <f>1000*0.000371109403204173</f>
+        <v>0.37110940320417302</v>
       </c>
       <c r="F15" s="2">
-        <f>1000*0.00160096236504614</f>
-        <v>1.60096236504614</v>
+        <f>1000*0.00160112790763378</f>
+        <v>1.6011279076337799</v>
       </c>
       <c r="G15" s="1">
-        <f>1000*0.000303795328363776</f>
-        <v>0.30379532836377598</v>
+        <f>1000*0.00030809169402346</f>
+        <v>0.30809169402345998</v>
       </c>
       <c r="H15" s="2">
-        <f>1000*0.000868793693371117</f>
-        <v>0.868793693371117</v>
+        <f>1000*0.00087100372184068</f>
+        <v>0.87100372184067998</v>
       </c>
       <c r="I15" s="1">
-        <f>1000*3.56508598997607E-06</f>
-        <v>3.5650859899760698E-3</v>
+        <f>1000*3.50466098097968E-06</f>
+        <v>3.50466098097968E-3</v>
       </c>
       <c r="J15" s="2">
-        <f>1000*0.00085090019274503</f>
-        <v>0.85090019274503004</v>
+        <f>1000*0.000845550093799829</f>
+        <v>0.84555009379982904</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
-        <v>3.9989019692256953</v>
+        <f>SUM(D15:J15)</f>
+        <v>4.0003874814829015</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>3.5990117723031265E-12</v>
+        <v>3.6003487333346118E-12</v>
       </c>
       <c r="O15" s="4">
         <v>276</v>
@@ -42088,7 +42097,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X15" s="2">
         <v>9</v>
@@ -42117,28 +42126,28 @@
         <v>1.7903209663927602</v>
       </c>
       <c r="G16" s="1">
-        <f>1000*0.000363626226317137</f>
-        <v>0.36362622631713698</v>
+        <f>1000*0.000364705512765795</f>
+        <v>0.36470551276579499</v>
       </c>
       <c r="H16" s="2">
-        <f>1000*0.00102812109980732</f>
-        <v>1.02812109980732</v>
+        <f>1000*0.00103614781983197</f>
+        <v>1.03614781983197</v>
       </c>
       <c r="I16" s="1">
         <f>1000*3.38650943376706E-06</f>
         <v>3.3865094337670598E-3</v>
       </c>
       <c r="J16" s="2">
-        <f>1000*0.00107843766454607</f>
-        <v>1.07843766454607</v>
+        <f>1000*0.00108535541221499</f>
+        <v>1.08535541221499</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>4.6963577210590302</v>
+        <f>SUM(D16:J16)</f>
+        <v>4.7123814752012585</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>3.7570861768472243E-12</v>
+        <v>3.7699051801610065E-12</v>
       </c>
       <c r="O16" s="4">
         <v>276</v>
@@ -42162,7 +42171,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="X16" s="2">
         <v>8</v>
@@ -42183,36 +42192,36 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>1000*0.000741177122108638</f>
-        <v>0.74117712210863795</v>
+        <f>1000*0.000417983799707144</f>
+        <v>0.417983799707144</v>
       </c>
       <c r="F17" s="2">
-        <f>1000*0.000793763087131083</f>
-        <v>0.79376308713108301</v>
+        <f>1000*0.00199189106933773</f>
+        <v>1.9918910693377301</v>
       </c>
       <c r="G17" s="1">
-        <f>1000*0.00162343855481595</f>
-        <v>1.62343855481595</v>
+        <f>1000*0.000305155961541459</f>
+        <v>0.30515596154145902</v>
       </c>
       <c r="H17" s="2">
-        <f>1000*0.00104413053486496</f>
-        <v>1.0441305348649599</v>
+        <f>1000*0.000881534419022501</f>
+        <v>0.88153441902250096</v>
       </c>
       <c r="I17" s="1">
-        <f>1000*6.84354336044635E-06</f>
-        <v>6.8435433604463504E-3</v>
+        <f>1000*2.57518195212469E-06</f>
+        <v>2.57518195212469E-3</v>
       </c>
       <c r="J17" s="2">
-        <f>1000*0.000789120444096625</f>
-        <v>0.78912044409662496</v>
+        <f>1000*0.0007579475059174</f>
+        <v>0.75794750591740001</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
-        <v>4.9984732863777026</v>
+        <f>SUM(D17:J17)</f>
+        <v>4.3570879374783589</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>3.4989313004643919E-12</v>
+        <v>3.049961556234851E-12</v>
       </c>
       <c r="O17" s="4">
         <v>186</v>
@@ -42236,7 +42245,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="4">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="X17" s="2">
         <v>7</v>
@@ -42257,36 +42266,36 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <f>1000*0.000651370792184025</f>
-        <v>0.65137079218402505</v>
+        <f>1000*0.000367850007023662</f>
+        <v>0.367850007023662</v>
       </c>
       <c r="F18" s="2">
-        <f>1000*0.000885166635271162</f>
-        <v>0.88516663527116202</v>
+        <f>1000*0.00209253327921033</f>
+        <v>2.0925332792103299</v>
       </c>
       <c r="G18" s="1">
-        <f>1000*0.00154896057210863</f>
-        <v>1.5489605721086301</v>
+        <f>1000*0.000244985771132633</f>
+        <v>0.24498577113263298</v>
       </c>
       <c r="H18" s="2">
-        <f>1000*0.000758039066568017</f>
-        <v>0.75803906656801701</v>
+        <f>1000*0.000788475968874991</f>
+        <v>0.78847596887499105</v>
       </c>
       <c r="I18" s="1">
-        <f>1000*5.97452208239702E-06</f>
-        <v>5.9745220823970201E-3</v>
+        <f>1000*2.73619048130058E-06</f>
+        <v>2.73619048130058E-3</v>
       </c>
       <c r="J18" s="2">
-        <f>1000*0.000693372800014913</f>
-        <v>0.69337280001491297</v>
+        <f>1000*0.00066666305065155</f>
+        <v>0.66666305065154996</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
-        <v>4.5428843882291439</v>
+        <f>SUM(D18:J18)</f>
+        <v>4.1632442673744663</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>2.7257306329374865E-12</v>
+        <v>2.4979465604246801E-12</v>
       </c>
       <c r="O18" s="4">
         <v>186</v>
@@ -42310,7 +42319,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="4">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="X18" s="2">
         <v>6</v>
@@ -42339,28 +42348,28 @@
         <v>3.1741627026349302</v>
       </c>
       <c r="G19" s="1">
-        <f>1000*0.000278797728242353</f>
-        <v>0.27879772824235299</v>
+        <f>1000*0.000291668839054182</f>
+        <v>0.29166883905418201</v>
       </c>
       <c r="H19" s="2">
-        <f>1000*0.000888140755705535</f>
-        <v>0.88814075570553497</v>
+        <f>1000*0.000943421735428274</f>
+        <v>0.94342173542827401</v>
       </c>
       <c r="I19" s="1">
         <f>1000*4.53235816166853E-06</f>
         <v>4.5323581616685303E-3</v>
       </c>
       <c r="J19" s="2">
-        <f>1000*0.00085364980623126</f>
-        <v>0.85364980623125997</v>
+        <f>1000*0.000906152999959886</f>
+        <v>0.90615299995988596</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
-        <v>5.756232178555365</v>
+        <f>SUM(D19:J19)</f>
+        <v>5.8768874628185586</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>2.8781160892776826E-12</v>
+        <v>2.9384437314092796E-12</v>
       </c>
       <c r="O19" s="4">
         <v>186</v>
@@ -42384,7 +42393,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="4">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="X19" s="2">
         <v>5</v>
@@ -42413,28 +42422,28 @@
         <v>3.8048466667532899</v>
       </c>
       <c r="G20" s="1">
-        <f>1000*0.000247060845140368</f>
-        <v>0.24706084514036802</v>
+        <f>1000*0.000253423553658649</f>
+        <v>0.25342355365864899</v>
       </c>
       <c r="H20" s="2">
-        <f>1000*0.00072020455263555</f>
-        <v>0.72020455263554994</v>
+        <f>1000*0.00079940224532038</f>
+        <v>0.79940224532037996</v>
       </c>
       <c r="I20" s="1">
         <f>1000*2.47698403654795E-06</f>
         <v>2.4769840365479502E-3</v>
       </c>
       <c r="J20" s="2">
-        <f>1000*0.000686214421875775</f>
-        <v>0.68621442187577497</v>
+        <f>1000*0.000756326073314995</f>
+        <v>0.75632607331499502</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
-        <v>6.032943100535701</v>
+        <f>SUM(D20:J20)</f>
+        <v>6.1886151531780325</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>2.4131772402142805E-12</v>
+        <v>2.4754460612712132E-12</v>
       </c>
       <c r="O20" s="4">
         <v>188</v>
@@ -42458,7 +42467,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="4">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="X20" s="2">
         <v>4</v>
@@ -42503,7 +42512,7 @@
         <v>1.9081661012023701</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K14:K21" si="3">SUM(D21:J21)</f>
         <v>5.4967950745776779</v>
       </c>
       <c r="M21" s="2">
@@ -42679,7 +42688,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42723,7 +42732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B4F34E-F310-4499-A4C9-AE3F7F52537D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AJ64" sqref="AJ64"/>
     </sheetView>
   </sheetViews>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF8FB36-1F7B-40F7-875D-1C55BA70BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC95739-CA40-4482-BBCE-4F09E283DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>BRAM</t>
   </si>
   <si>
-    <t>Energy Single Operation [pJ]</t>
-  </si>
-  <si>
     <t>Timing Report</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Solution</t>
+  </si>
+  <si>
+    <t>Energy Single Operation [J]</t>
   </si>
 </sst>
 </file>
@@ -5864,7 +5864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [pJ]</c:v>
+                  <c:v>Energy Single Operation [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5921,16 +5921,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2448900142298923E-12</c:v>
+                  <c:v>3.2448900142298924E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2035731271662382E-12</c:v>
+                  <c:v>3.2035731271662383E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2529472937312669E-12</c:v>
+                  <c:v>3.2529472937312669E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2747125376081396E-12</c:v>
+                  <c:v>4.2747125376081396E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,7 +8704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [pJ]</c:v>
+                  <c:v>Energy Single Operation [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8803,58 +8803,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3.9368294171708857E-12</c:v>
+                  <c:v>3.9368294171708859E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7655462381044427E-12</c:v>
+                  <c:v>4.765546238104443E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2448900142298923E-12</c:v>
+                  <c:v>3.2448900142298924E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2035731271662382E-12</c:v>
+                  <c:v>3.2035731271662383E-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2529472937312669E-12</c:v>
+                  <c:v>3.2529472937312669E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2747125376081396E-12</c:v>
+                  <c:v>4.2747125376081396E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0268509956149517E-12</c:v>
+                  <c:v>4.026850995614952E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2376005226524293E-12</c:v>
+                  <c:v>3.2376005226524293E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.661390446675798E-12</c:v>
+                  <c:v>5.6613904466757977E-11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9577747963903639E-12</c:v>
+                  <c:v>3.9577747963903641E-11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6003487333346118E-12</c:v>
+                  <c:v>3.6003487333346118E-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7699051801610065E-12</c:v>
+                  <c:v>3.7699051801610067E-11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.049961556234851E-12</c:v>
+                  <c:v>3.0499615562348512E-11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4979465604246801E-12</c:v>
+                  <c:v>2.4979465604246799E-11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9384437314092796E-12</c:v>
+                  <c:v>2.9384437314092798E-11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4754460612712132E-12</c:v>
+                  <c:v>2.4754460612712133E-11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4967950745776776E-12</c:v>
+                  <c:v>5.4967950745776778E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6281592970699424E-11</c:v>
+                  <c:v>1.6281592970699425E-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10351,7 +10351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [pJ]</c:v>
+                  <c:v>Energy Single Operation [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10408,16 +10408,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2448900142298923E-12</c:v>
+                  <c:v>3.2448900142298924E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0268509956149517E-12</c:v>
+                  <c:v>4.026850995614952E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2376005226524293E-12</c:v>
+                  <c:v>3.2376005226524293E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.661390446675798E-12</c:v>
+                  <c:v>5.6613904466757977E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14177,7 +14177,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [pJ]</c:v>
+                  <c:v>Energy Single Operation [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14228,10 +14228,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.9368294171708857E-12</c:v>
+                  <c:v>3.9368294171708859E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4967950745776776E-12</c:v>
+                  <c:v>5.4967950745776778E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21934,7 +21934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [pJ]</c:v>
+                  <c:v>Energy Single Operation [J]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22000,25 +22000,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.9577747963903639E-12</c:v>
+                  <c:v>3.9577747963903641E-11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6003487333346118E-12</c:v>
+                  <c:v>3.6003487333346118E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7699051801610065E-12</c:v>
+                  <c:v>3.7699051801610067E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.049961556234851E-12</c:v>
+                  <c:v>3.0499615562348512E-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4979465604246801E-12</c:v>
+                  <c:v>2.4979465604246799E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9384437314092796E-12</c:v>
+                  <c:v>2.9384437314092798E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4754460612712132E-12</c:v>
+                  <c:v>2.4754460612712133E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41180,7 +41180,7 @@
   <dimension ref="B2:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41221,7 +41221,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
       <c r="W2" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
@@ -41229,7 +41229,7 @@
     </row>
     <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>31</v>
@@ -41256,7 +41256,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>28</v>
@@ -41280,16 +41280,16 @@
         <v>26</v>
       </c>
       <c r="W3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -41328,8 +41328,8 @@
         <v>3.9368294171708857</v>
       </c>
       <c r="M5" s="2">
-        <f>(($K5/1000)*$X5*(10^-9))/10</f>
-        <v>3.9368294171708857E-12</v>
+        <f>(($K5/1000)*$X5*(10^-9))</f>
+        <v>3.9368294171708859E-11</v>
       </c>
       <c r="O5" s="2">
         <v>275</v>
@@ -41402,8 +41402,8 @@
         <v>4.7655462381044433</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M22" si="1">(($K6/1000)*$X6*(10^-9))/10</f>
-        <v>4.7655462381044427E-12</v>
+        <f t="shared" ref="M6:M22" si="1">(($K6/1000)*$X6*(10^-9))</f>
+        <v>4.765546238104443E-11</v>
       </c>
       <c r="O6" s="4">
         <v>270</v>
@@ -41477,7 +41477,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>3.2448900142298923E-12</v>
+        <v>3.2448900142298924E-11</v>
       </c>
       <c r="O7" s="4">
         <v>158</v>
@@ -41552,7 +41552,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>3.2035731271662382E-12</v>
+        <v>3.2035731271662383E-11</v>
       </c>
       <c r="O8" s="4">
         <v>98</v>
@@ -41627,7 +41627,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>3.2529472937312669E-12</v>
+        <v>3.2529472937312669E-11</v>
       </c>
       <c r="O9" s="4">
         <v>98</v>
@@ -41701,7 +41701,7 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>4.2747125376081396E-12</v>
+        <v>4.2747125376081396E-11</v>
       </c>
       <c r="O10" s="4">
         <v>413</v>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>4.0268509956149517E-12</v>
+        <v>4.026850995614952E-11</v>
       </c>
       <c r="O11" s="4">
         <v>159</v>
@@ -41846,12 +41846,12 @@
         <v>0.41881192009896001</v>
       </c>
       <c r="K12" s="5">
-        <f>SUM(D12:J12)</f>
+        <f t="shared" ref="K12:K20" si="3">SUM(D12:J12)</f>
         <v>3.2376005226524294</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>3.2376005226524293E-12</v>
+        <v>3.2376005226524293E-11</v>
       </c>
       <c r="O12" s="4">
         <v>145</v>
@@ -41920,12 +41920,12 @@
         <v>1.32495700381696</v>
       </c>
       <c r="K13" s="5">
-        <f>SUM(D13:J13)</f>
+        <f t="shared" si="3"/>
         <v>5.6613904466757976</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>5.661390446675798E-12</v>
+        <v>5.6613904466757977E-11</v>
       </c>
       <c r="O13" s="4">
         <v>1145</v>
@@ -41994,12 +41994,12 @@
         <v>1.0144955012947299</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM(D14:J14)</f>
+        <f t="shared" si="3"/>
         <v>3.957774796390364</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>3.9577747963903639E-12</v>
+        <v>3.9577747963903641E-11</v>
       </c>
       <c r="O14" s="4">
         <v>275</v>
@@ -42068,12 +42068,12 @@
         <v>0.84555009379982904</v>
       </c>
       <c r="K15" s="5">
-        <f>SUM(D15:J15)</f>
+        <f t="shared" si="3"/>
         <v>4.0003874814829015</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>3.6003487333346118E-12</v>
+        <v>3.6003487333346118E-11</v>
       </c>
       <c r="O15" s="4">
         <v>276</v>
@@ -42142,12 +42142,12 @@
         <v>1.08535541221499</v>
       </c>
       <c r="K16" s="5">
-        <f>SUM(D16:J16)</f>
+        <f t="shared" si="3"/>
         <v>4.7123814752012585</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>3.7699051801610065E-12</v>
+        <v>3.7699051801610067E-11</v>
       </c>
       <c r="O16" s="4">
         <v>276</v>
@@ -42216,12 +42216,12 @@
         <v>0.75794750591740001</v>
       </c>
       <c r="K17" s="5">
-        <f>SUM(D17:J17)</f>
+        <f t="shared" si="3"/>
         <v>4.3570879374783589</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>3.049961556234851E-12</v>
+        <v>3.0499615562348512E-11</v>
       </c>
       <c r="O17" s="4">
         <v>186</v>
@@ -42290,12 +42290,12 @@
         <v>0.66666305065154996</v>
       </c>
       <c r="K18" s="5">
-        <f>SUM(D18:J18)</f>
+        <f t="shared" si="3"/>
         <v>4.1632442673744663</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>2.4979465604246801E-12</v>
+        <v>2.4979465604246799E-11</v>
       </c>
       <c r="O18" s="4">
         <v>186</v>
@@ -42364,12 +42364,12 @@
         <v>0.90615299995988596</v>
       </c>
       <c r="K19" s="5">
-        <f>SUM(D19:J19)</f>
+        <f t="shared" si="3"/>
         <v>5.8768874628185586</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>2.9384437314092796E-12</v>
+        <v>2.9384437314092798E-11</v>
       </c>
       <c r="O19" s="4">
         <v>186</v>
@@ -42438,12 +42438,12 @@
         <v>0.75632607331499502</v>
       </c>
       <c r="K20" s="5">
-        <f>SUM(D20:J20)</f>
+        <f t="shared" si="3"/>
         <v>6.1886151531780325</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>2.4754460612712132E-12</v>
+        <v>2.4754460612712133E-11</v>
       </c>
       <c r="O20" s="4">
         <v>188</v>
@@ -42482,7 +42482,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -42512,12 +42512,12 @@
         <v>1.9081661012023701</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" ref="K14:K21" si="3">SUM(D21:J21)</f>
+        <f t="shared" ref="K21" si="4">SUM(D21:J21)</f>
         <v>5.4967950745776779</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>5.4967950745776776E-12</v>
+        <v>5.4967950745776778E-11</v>
       </c>
       <c r="O21" s="4">
         <v>311</v>
@@ -42590,7 +42590,7 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>1.6281592970699424E-11</v>
+        <v>1.6281592970699425E-10</v>
       </c>
       <c r="O22" s="4">
         <v>739</v>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC95739-CA40-4482-BBCE-4F09E283DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAC551-BC5B-4A7B-A95C-C7305080987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -162,7 +162,7 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>Energy Single Operation [J]</t>
+    <t>Energy Single Operation [pJ]</t>
   </si>
 </sst>
 </file>
@@ -5864,7 +5864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [J]</c:v>
+                  <c:v>Energy Single Operation [pJ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5921,16 +5921,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2448900142298924E-11</c:v>
+                  <c:v>32.448900142298925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2035731271662383E-11</c:v>
+                  <c:v>32.035731271662378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2529472937312669E-11</c:v>
+                  <c:v>32.529472937312669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2747125376081396E-11</c:v>
+                  <c:v>42.747125376081392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,7 +8704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [J]</c:v>
+                  <c:v>Energy Single Operation [pJ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8803,58 +8803,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3.9368294171708859E-11</c:v>
+                  <c:v>39.368294171708854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.765546238104443E-11</c:v>
+                  <c:v>47.65546238104443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2448900142298924E-11</c:v>
+                  <c:v>32.448900142298925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2035731271662383E-11</c:v>
+                  <c:v>32.035731271662378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2529472937312669E-11</c:v>
+                  <c:v>32.529472937312669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2747125376081396E-11</c:v>
+                  <c:v>42.747125376081392</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.026850995614952E-11</c:v>
+                  <c:v>40.268509956149515</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2376005226524293E-11</c:v>
+                  <c:v>32.376005226524292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6613904466757977E-11</c:v>
+                  <c:v>56.613904466757973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9577747963903641E-11</c:v>
+                  <c:v>39.57774796390364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6003487333346118E-11</c:v>
+                  <c:v>36.003487333346115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7699051801610067E-11</c:v>
+                  <c:v>37.699051801610068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0499615562348512E-11</c:v>
+                  <c:v>30.499615562348513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4979465604246799E-11</c:v>
+                  <c:v>24.979465604246798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9384437314092798E-11</c:v>
+                  <c:v>29.384437314092793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4754460612712133E-11</c:v>
+                  <c:v>24.75446061271213</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4967950745776778E-11</c:v>
+                  <c:v>54.967950745776776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6281592970699425E-10</c:v>
+                  <c:v>162.81592970699424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10351,7 +10351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [J]</c:v>
+                  <c:v>Energy Single Operation [pJ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10408,16 +10408,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2448900142298924E-11</c:v>
+                  <c:v>32.448900142298925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.026850995614952E-11</c:v>
+                  <c:v>40.268509956149515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2376005226524293E-11</c:v>
+                  <c:v>32.376005226524292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6613904466757977E-11</c:v>
+                  <c:v>56.613904466757973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14177,7 +14177,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [J]</c:v>
+                  <c:v>Energy Single Operation [pJ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14228,10 +14228,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.9368294171708859E-11</c:v>
+                  <c:v>39.368294171708854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4967950745776778E-11</c:v>
+                  <c:v>54.967950745776776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21934,7 +21934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Energy Single Operation [J]</c:v>
+                  <c:v>Energy Single Operation [pJ]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22000,25 +22000,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.9577747963903641E-11</c:v>
+                  <c:v>39.57774796390364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6003487333346118E-11</c:v>
+                  <c:v>36.003487333346115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7699051801610067E-11</c:v>
+                  <c:v>37.699051801610068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0499615562348512E-11</c:v>
+                  <c:v>30.499615562348513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4979465604246799E-11</c:v>
+                  <c:v>24.979465604246798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9384437314092798E-11</c:v>
+                  <c:v>29.384437314092793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4754460612712133E-11</c:v>
+                  <c:v>24.75446061271213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41180,7 +41180,7 @@
   <dimension ref="B2:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41328,8 +41328,8 @@
         <v>3.9368294171708857</v>
       </c>
       <c r="M5" s="2">
-        <f>(($K5/1000)*$X5*(10^-9))</f>
-        <v>3.9368294171708859E-11</v>
+        <f>$K5*$X5</f>
+        <v>39.368294171708854</v>
       </c>
       <c r="O5" s="2">
         <v>275</v>
@@ -41402,8 +41402,8 @@
         <v>4.7655462381044433</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M22" si="1">(($K6/1000)*$X6*(10^-9))</f>
-        <v>4.765546238104443E-11</v>
+        <f t="shared" ref="M6:M22" si="1">$K6*$X6</f>
+        <v>47.65546238104443</v>
       </c>
       <c r="O6" s="4">
         <v>270</v>
@@ -41477,7 +41477,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>3.2448900142298924E-11</v>
+        <v>32.448900142298925</v>
       </c>
       <c r="O7" s="4">
         <v>158</v>
@@ -41552,7 +41552,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>3.2035731271662383E-11</v>
+        <v>32.035731271662378</v>
       </c>
       <c r="O8" s="4">
         <v>98</v>
@@ -41627,7 +41627,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>3.2529472937312669E-11</v>
+        <v>32.529472937312669</v>
       </c>
       <c r="O9" s="4">
         <v>98</v>
@@ -41701,7 +41701,7 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>4.2747125376081396E-11</v>
+        <v>42.747125376081392</v>
       </c>
       <c r="O10" s="4">
         <v>413</v>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>4.026850995614952E-11</v>
+        <v>40.268509956149515</v>
       </c>
       <c r="O11" s="4">
         <v>159</v>
@@ -41851,7 +41851,7 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>3.2376005226524293E-11</v>
+        <v>32.376005226524292</v>
       </c>
       <c r="O12" s="4">
         <v>145</v>
@@ -41925,7 +41925,7 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>5.6613904466757977E-11</v>
+        <v>56.613904466757973</v>
       </c>
       <c r="O13" s="4">
         <v>1145</v>
@@ -41999,7 +41999,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>3.9577747963903641E-11</v>
+        <v>39.57774796390364</v>
       </c>
       <c r="O14" s="4">
         <v>275</v>
@@ -42073,7 +42073,7 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>3.6003487333346118E-11</v>
+        <v>36.003487333346115</v>
       </c>
       <c r="O15" s="4">
         <v>276</v>
@@ -42147,7 +42147,7 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>3.7699051801610067E-11</v>
+        <v>37.699051801610068</v>
       </c>
       <c r="O16" s="4">
         <v>276</v>
@@ -42221,7 +42221,7 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>3.0499615562348512E-11</v>
+        <v>30.499615562348513</v>
       </c>
       <c r="O17" s="4">
         <v>186</v>
@@ -42295,7 +42295,7 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>2.4979465604246799E-11</v>
+        <v>24.979465604246798</v>
       </c>
       <c r="O18" s="4">
         <v>186</v>
@@ -42369,7 +42369,7 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>2.9384437314092798E-11</v>
+        <v>29.384437314092793</v>
       </c>
       <c r="O19" s="4">
         <v>186</v>
@@ -42443,7 +42443,7 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>2.4754460612712133E-11</v>
+        <v>24.75446061271213</v>
       </c>
       <c r="O20" s="4">
         <v>188</v>
@@ -42517,7 +42517,7 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>5.4967950745776778E-11</v>
+        <v>54.967950745776776</v>
       </c>
       <c r="O21" s="4">
         <v>311</v>
@@ -42590,7 +42590,7 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>1.6281592970699425E-10</v>
+        <v>162.81592970699424</v>
       </c>
       <c r="O22" s="4">
         <v>739</v>

--- a/reports/vivado/report-vivado-solutions.xlsx
+++ b/reports/vivado/report-vivado-solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\vivado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAC551-BC5B-4A7B-A95C-C7305080987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1BF5A3-BFB2-436C-8281-F83B4DF87EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -778,7 +778,7 @@
                   <c:v>0.57213963009417101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.350732821971178</c:v>
+                  <c:v>0.196236724150367</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.36168267251923703</c:v>
@@ -949,7 +949,7 @@
                   <c:v>3.8048466667532899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64228387782350205</c:v>
+                  <c:v>1.7788336845114798</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.4096467532217498</c:v>
@@ -1118,7 +1118,7 @@
                   <c:v>0.25342355365864899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.18907087016851</c:v>
+                  <c:v>0.81473810132592894</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1287,7 +1287,7 @@
                   <c:v>0.79940224532037996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.38780823908746</c:v>
+                  <c:v>1.27509713638574</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7.9632550477981603</c:v>
@@ -1458,7 +1458,7 @@
                   <c:v>2.4769840365479502E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>1.8733164324657998E-2</c:v>
+                  <c:v>1.2051522389811E-2</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
                   <c:v>8.2827373262262007E-3</c:v>
@@ -1631,7 +1631,7 @@
                   <c:v>0.75632607331499502</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9081661012023701</c:v>
+                  <c:v>1.20656989626586</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5.5387257598340502</c:v>
@@ -1808,7 +1808,7 @@
                   <c:v>6.1886151531780325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4967950745776779</c:v>
+                  <c:v>5.2835270650291868</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>16.281592970699425</c:v>
@@ -8851,7 +8851,7 @@
                   <c:v>24.75446061271213</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.967950745776776</c:v>
+                  <c:v>52.835270650291868</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>162.81592970699424</c:v>
@@ -13320,7 +13320,7 @@
                   <c:v>0.45422746916301499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.350732821971178</c:v>
+                  <c:v>0.196236724150367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13395,7 +13395,7 @@
                   <c:v>1.2154849246144299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64228387782350205</c:v>
+                  <c:v>1.7788336845114798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13468,7 +13468,7 @@
                   <c:v>0.33501180587336399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.18907087016851</c:v>
+                  <c:v>0.81473810132592894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13541,7 +13541,7 @@
                   <c:v>0.92148053226992499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.38780823908746</c:v>
+                  <c:v>1.27509713638574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13616,7 +13616,7 @@
                   <c:v>3.56509622179146E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8733164324657998E-2</c:v>
+                  <c:v>1.2051522389811E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13693,7 +13693,7 @@
                   <c:v>1.00705958902836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9081661012023701</c:v>
+                  <c:v>1.20656989626586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13774,7 +13774,7 @@
                   <c:v>3.9368294171708857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4967950745776779</c:v>
+                  <c:v>5.2835270650291868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14231,7 +14231,7 @@
                   <c:v>39.368294171708854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.967950745776776</c:v>
+                  <c:v>52.835270650291868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41180,7 +41180,7 @@
   <dimension ref="B2:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42488,36 +42488,36 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f>1000*0.000350732821971178</f>
-        <v>0.350732821971178</v>
+        <f>1000*0.000196236724150367</f>
+        <v>0.196236724150367</v>
       </c>
       <c r="F21" s="2">
-        <f>1000*0.000642283877823502</f>
-        <v>0.64228387782350205</v>
+        <f>1000*0.00177883368451148</f>
+        <v>1.7788336845114798</v>
       </c>
       <c r="G21" s="1">
-        <f>1000*0.00118907087016851</f>
-        <v>1.18907087016851</v>
+        <f>1000*0.000814738101325929</f>
+        <v>0.81473810132592894</v>
       </c>
       <c r="H21" s="2">
-        <f>1000*0.00138780823908746</f>
-        <v>1.38780823908746</v>
+        <f>1000*0.00127509713638574</f>
+        <v>1.27509713638574</v>
       </c>
       <c r="I21" s="1">
-        <f>1000*0.000018733164324658</f>
-        <v>1.8733164324657998E-2</v>
+        <f>1000*0.000012051522389811</f>
+        <v>1.2051522389811E-2</v>
       </c>
       <c r="J21" s="2">
-        <f>1000*0.00190816610120237</f>
-        <v>1.9081661012023701</v>
+        <f>1000*0.00120656989626586</f>
+        <v>1.20656989626586</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" ref="K21" si="4">SUM(D21:J21)</f>
-        <v>5.4967950745776779</v>
+        <v>5.2835270650291868</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>54.967950745776776</v>
+        <v>52.835270650291868</v>
       </c>
       <c r="O21" s="4">
         <v>311</v>
